--- a/xlsx/费尔菲尔德 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/费尔菲尔德 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>费尔菲尔德 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_费尔菲尔德 (加利福尼亚州)</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E8%AF%BA%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E8%8F%B2%E7%88%BE%E5%BE%B7_(%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費爾菲爾德 (康涅狄格州)</t>
+    <t>费尔菲尔德 (康涅狄格州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:California</t>
@@ -65,13 +65,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -83,7 +80,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -95,19 +92,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -299,25 +296,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -329,31 +326,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -551,19 +548,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -707,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -761,15 +758,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
   </si>
   <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -779,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%8E%BF</t>
   </si>
   <si>
@@ -791,37 +782,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -833,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%A2%85%E8%BE%BE%E5%8E%BF</t>
@@ -881,43 +872,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>费利蒙 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -935,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1926,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -1952,10 +1940,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
@@ -1981,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2010,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -2039,10 +2027,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2068,10 +2056,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2097,10 +2085,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
@@ -2126,10 +2114,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -2155,10 +2143,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2184,10 +2172,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2213,10 +2201,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2242,10 +2230,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2271,10 +2259,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2300,10 +2288,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2329,10 +2317,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2358,10 +2346,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2387,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2416,10 +2404,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2445,10 +2433,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2474,10 +2462,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2503,10 +2491,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2532,10 +2520,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2561,10 +2549,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2590,10 +2578,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2619,10 +2607,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2648,10 +2636,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2677,10 +2665,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2706,10 +2694,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2735,10 +2723,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2764,10 +2752,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2793,10 +2781,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2822,10 +2810,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2851,10 +2839,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2880,10 +2868,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2909,10 +2897,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2938,10 +2926,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2967,10 +2955,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2996,10 +2984,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3025,10 +3013,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3054,10 +3042,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3083,10 +3071,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3112,10 +3100,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3141,10 +3129,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3170,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3199,10 +3187,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3228,10 +3216,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3257,10 +3245,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3286,10 +3274,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3315,10 +3303,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3344,10 +3332,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3373,10 +3361,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3402,10 +3390,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3431,10 +3419,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3489,10 +3477,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3518,10 +3506,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3547,10 +3535,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3576,10 +3564,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3605,10 +3593,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3634,10 +3622,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3663,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3692,10 +3680,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3721,10 +3709,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3750,10 +3738,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3779,10 +3767,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3808,10 +3796,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3837,10 +3825,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3866,10 +3854,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3895,10 +3883,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3924,10 +3912,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3953,10 +3941,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3982,10 +3970,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4011,10 +3999,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4040,10 +4028,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4069,10 +4057,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4098,10 +4086,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4127,10 +4115,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4156,10 +4144,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4185,10 +4173,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4214,10 +4202,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4243,10 +4231,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4272,10 +4260,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4301,10 +4289,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4330,10 +4318,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
         <v>101</v>
-      </c>
-      <c r="F91" t="s">
-        <v>102</v>
       </c>
       <c r="G91" t="n">
         <v>9</v>
@@ -4359,10 +4347,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4388,10 +4376,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4417,10 +4405,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4446,10 +4434,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4475,10 +4463,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4504,10 +4492,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4533,10 +4521,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4562,10 +4550,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4591,10 +4579,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4620,10 +4608,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4649,10 +4637,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4678,10 +4666,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4707,10 +4695,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4736,10 +4724,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4765,10 +4753,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4794,10 +4782,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4823,10 +4811,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4852,10 +4840,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4881,10 +4869,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4910,10 +4898,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4939,10 +4927,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4968,10 +4956,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4997,10 +4985,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5026,10 +5014,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5055,10 +5043,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5084,10 +5072,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5113,10 +5101,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5142,10 +5130,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5171,10 +5159,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -5200,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5229,10 +5217,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5258,10 +5246,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5287,10 +5275,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5316,10 +5304,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5345,10 +5333,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5374,10 +5362,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -5403,10 +5391,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>8</v>
@@ -5432,10 +5420,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5464,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5490,10 +5478,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5519,10 +5507,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5548,10 +5536,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5577,10 +5565,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5606,10 +5594,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5635,10 +5623,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5664,10 +5652,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5693,10 +5681,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5722,10 +5710,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5751,10 +5739,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5780,10 +5768,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5809,10 +5797,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5838,10 +5826,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5867,10 +5855,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5896,10 +5884,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5925,10 +5913,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5954,10 +5942,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5983,10 +5971,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6012,10 +6000,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6041,10 +6029,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6070,10 +6058,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6099,10 +6087,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6128,10 +6116,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6157,10 +6145,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6186,10 +6174,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6215,10 +6203,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6244,10 +6232,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6273,10 +6261,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6302,10 +6290,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6331,10 +6319,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6360,10 +6348,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6389,10 +6377,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6418,10 +6406,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6447,10 +6435,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6476,10 +6464,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6505,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6534,10 +6522,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6563,10 +6551,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6592,10 +6580,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6621,10 +6609,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6650,10 +6638,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6679,10 +6667,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6708,10 +6696,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>178</v>
+      </c>
+      <c r="F173" t="s">
         <v>179</v>
-      </c>
-      <c r="F173" t="s">
-        <v>180</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6737,10 +6725,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6766,10 +6754,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6795,10 +6783,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6824,10 +6812,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6853,10 +6841,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6882,10 +6870,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6911,10 +6899,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6940,10 +6928,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6969,10 +6957,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6998,10 +6986,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7027,10 +7015,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7056,10 +7044,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7085,10 +7073,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7114,10 +7102,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7143,10 +7131,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7172,10 +7160,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7201,10 +7189,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" t="s">
         <v>41</v>
-      </c>
-      <c r="F190" t="s">
-        <v>42</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7230,10 +7218,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7259,10 +7247,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7288,10 +7276,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7317,10 +7305,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7346,10 +7334,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7375,10 +7363,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7404,10 +7392,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7433,10 +7421,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7462,10 +7450,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7491,10 +7479,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7520,10 +7508,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7549,10 +7537,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7578,10 +7566,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7607,10 +7595,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7636,10 +7624,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7665,10 +7653,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7694,10 +7682,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7723,10 +7711,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7752,10 +7740,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7781,10 +7769,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7810,10 +7798,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7839,10 +7827,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7868,10 +7856,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7897,10 +7885,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7955,10 +7943,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7984,10 +7972,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8013,10 +8001,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8042,10 +8030,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8071,10 +8059,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8100,10 +8088,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>120</v>
+      </c>
+      <c r="F221" t="s">
         <v>121</v>
-      </c>
-      <c r="F221" t="s">
-        <v>122</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8129,10 +8117,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8158,10 +8146,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8187,10 +8175,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8216,10 +8204,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8245,10 +8233,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8274,10 +8262,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8303,10 +8291,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8332,10 +8320,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8361,10 +8349,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
